--- a/RestAssuredAPITesting/src/test/java/dataDrivenTest/EmployeeData.xlsx
+++ b/RestAssuredAPITesting/src/test/java/dataDrivenTest/EmployeeData.xlsx
@@ -3,20 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RobinChaudhary\eclipse-work\RestAssuredAPITesting\src\test\java\dataDrivenTest\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA0C865-4D91-4D9F-907E-2E51357DCF3E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D18CC4BC-C092-4F20-BC86-9A65C47DCC15}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="19460" windowHeight="11060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TestCases" sheetId="1" r:id="rId1"/>
     <sheet name="EmpData" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
